--- a/Simulationsgeschwindigkeit.xlsx
+++ b/Simulationsgeschwindigkeit.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Uni\5-WS2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arbeitslaptop\Desktop\Planetarium\Planetarium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87084455-163F-4E4D-B863-829CEAFCE670}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F88F89B9-682A-4918-A3AC-B5AB0CE1627D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{3AE9FF2E-20ED-4CD7-BB9C-57444C6A8D1B}"/>
   </bookViews>
@@ -23,6 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -492,15 +493,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F40EBD00-A5ED-4BD1-8013-C998FEE65FF1}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="93" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.140625" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
     <col min="8" max="8" width="26.42578125" customWidth="1"/>
@@ -870,7 +872,7 @@
         <v>9.160152826089508</v>
       </c>
       <c r="K9">
-        <f t="shared" si="6"/>
+        <f>H9/G9</f>
         <v>0.1832030565217902</v>
       </c>
     </row>
@@ -948,11 +950,11 @@
         <v>60148</v>
       </c>
       <c r="I11">
-        <f t="shared" si="4"/>
+        <f>G11*$E$17</f>
         <v>6569.2258129187439</v>
       </c>
       <c r="J11">
-        <f t="shared" si="5"/>
+        <f>H11/I11</f>
         <v>9.1560256433437939</v>
       </c>
       <c r="K11">
@@ -1040,6 +1042,12 @@
       </c>
       <c r="B19">
         <v>1E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H20" s="2">
+        <f>0.18327672*6</f>
+        <v>1.0996603199999999</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
